--- a/backend/config/Attraction_data_4.xlsx
+++ b/backend/config/Attraction_data_4.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENDPROJECT\CODE Project\trip-spark-builder\backend\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BC8B7-9FA0-44A5-A8B2-A187CFBB5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1670">
   <si>
     <t>Place ID</t>
   </si>
@@ -4172,17 +4191,869 @@
   </si>
   <si>
     <t>2024-06-06T06:33:40.370Z</t>
+  </si>
+  <si>
+    <t>TimeOpen</t>
+  </si>
+  <si>
+    <t>TimeClose</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>วันจันทร์-วันศุกร์</t>
+  </si>
+  <si>
+    <t>TimeOpen2</t>
+  </si>
+  <si>
+    <t>TimeClose2</t>
+  </si>
+  <si>
+    <t>เสาร์</t>
+  </si>
+  <si>
+    <t>วันอังคาร - วันอาทิตย์</t>
+  </si>
+  <si>
+    <t>PriceTeen</t>
+  </si>
+  <si>
+    <t>PriceAdult</t>
+  </si>
+  <si>
+    <t>TotalPeople</t>
+  </si>
+  <si>
+    <t>ฟรี (คนไทย)</t>
+  </si>
+  <si>
+    <t>ฟรี (คนไทย) / ~100 บาท (ต่างชาติ)</t>
+  </si>
+  <si>
+    <t>~500–1,000 คนต่อรอบ (ประเมิน)</t>
+  </si>
+  <si>
+    <t>ฟรี</t>
+  </si>
+  <si>
+    <t>~300–500 คน (ประเมิน)</t>
+  </si>
+  <si>
+    <t>สูงสุด ~50 คน/รอบ (หมู่คณะ)</t>
+  </si>
+  <si>
+    <t>~300–500 คนต่อรอบ (ประเมิน)</t>
+  </si>
+  <si>
+    <t>~50–100 คน/รอบ (หมู่คณะนัดล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>40 บาท (ไทย), 100 บาท (ต่างชาติ)</t>
+  </si>
+  <si>
+    <t>10 บาท/นักเรียนหมู่คณะ หรือ 50 บาท/เด็ก</t>
+  </si>
+  <si>
+    <t>100 บาท</t>
+  </si>
+  <si>
+    <t>วันพุธ - อาทิตย์</t>
+  </si>
+  <si>
+    <t>จันทร์-อาทิตย์</t>
+  </si>
+  <si>
+    <t>คนละ 200 บาท</t>
+  </si>
+  <si>
+    <t>วันจันทร์ - เสาร์</t>
+  </si>
+  <si>
+    <t>~100</t>
+  </si>
+  <si>
+    <t>~50</t>
+  </si>
+  <si>
+    <t>~200</t>
+  </si>
+  <si>
+    <t>ฟรี (เฉพาะนัดล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>~30</t>
+  </si>
+  <si>
+    <t>ทุกวัน</t>
+  </si>
+  <si>
+    <t>~300 คน (กลางแจ้ง)</t>
+  </si>
+  <si>
+    <t>~500</t>
+  </si>
+  <si>
+    <t>~300</t>
+  </si>
+  <si>
+    <t>~400</t>
+  </si>
+  <si>
+    <t>50 บาท</t>
+  </si>
+  <si>
+    <t>100 บาท</t>
+  </si>
+  <si>
+    <t>~150</t>
+  </si>
+  <si>
+    <t>~250</t>
+  </si>
+  <si>
+    <t>~1000</t>
+  </si>
+  <si>
+    <t>อังคาร–อาทิตย์</t>
+  </si>
+  <si>
+    <t>~600</t>
+  </si>
+  <si>
+    <t>~2000</t>
+  </si>
+  <si>
+    <t>150 บาท</t>
+  </si>
+  <si>
+    <t>350 บาท</t>
+  </si>
+  <si>
+    <t>ศุกร์ (บางส่วน), เสาร์–อาทิตย์</t>
+  </si>
+  <si>
+    <t>เสาร์–อาทิตย์</t>
+  </si>
+  <si>
+    <t>24 ชม.</t>
+  </si>
+  <si>
+    <t>24ชม.</t>
+  </si>
+  <si>
+    <t>~550 บาท</t>
+  </si>
+  <si>
+    <t>~650 บาท</t>
+  </si>
+  <si>
+    <t>ฟรี (ต้องจองล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>~850 บาท</t>
+  </si>
+  <si>
+    <t>~1,000 บาท</t>
+  </si>
+  <si>
+    <t>~1,000+ (พื้นที่เปิด)</t>
+  </si>
+  <si>
+    <t>~3,000</t>
+  </si>
+  <si>
+    <t>~5,000</t>
+  </si>
+  <si>
+    <t>~2,000</t>
+  </si>
+  <si>
+    <t>~10,000+</t>
+  </si>
+  <si>
+    <t>ศุกร์–อาทิตย์</t>
+  </si>
+  <si>
+    <t>จันทร์–ศุกร์</t>
+  </si>
+  <si>
+    <t>~5,000+</t>
+  </si>
+  <si>
+    <t>~1,500</t>
+  </si>
+  <si>
+    <t>ทุกวัน (เว้นวันจันทร์)</t>
+  </si>
+  <si>
+    <t>อังคาร–เสาร์</t>
+  </si>
+  <si>
+    <t>250 บาท</t>
+  </si>
+  <si>
+    <t>500 บาท</t>
+  </si>
+  <si>
+    <t>~2,000+</t>
+  </si>
+  <si>
+    <t>~3,000+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สถานที่เปิดโล่ง</t>
+  </si>
+  <si>
+    <t>สถานที่เปิดโล่ง</t>
+  </si>
+  <si>
+    <t>~1,000</t>
+  </si>
+  <si>
+    <t>ทุกวัน (เว้นวันพุธ)</t>
+  </si>
+  <si>
+    <t>20 บาท</t>
+  </si>
+  <si>
+    <t>30 บาท</t>
+  </si>
+  <si>
+    <t>10 บาท</t>
+  </si>
+  <si>
+    <t>30บาท</t>
+  </si>
+  <si>
+    <t>80 บาท</t>
+  </si>
+  <si>
+    <t>พุธ–อาทิตย์</t>
+  </si>
+  <si>
+    <t>30 บาท (คนไทย) / 200 บาท (ชาวต่างชาติ)</t>
+  </si>
+  <si>
+    <t>ฟรี (จองล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>สถานที่กลางแจ้ง</t>
+  </si>
+  <si>
+    <t>ไม่ระบุ</t>
+  </si>
+  <si>
+    <t>~4000</t>
+  </si>
+  <si>
+    <t>~700</t>
+  </si>
+  <si>
+    <t>~800</t>
+  </si>
+  <si>
+    <t>กลางแจ้ง</t>
+  </si>
+  <si>
+    <t>ตามโปรแกรมการแสดง</t>
+  </si>
+  <si>
+    <t>300-1,500 บาท</t>
+  </si>
+  <si>
+    <t>200-1,000 บาท</t>
+  </si>
+  <si>
+    <t>400-2,000 บาท</t>
+  </si>
+  <si>
+    <t>500-2,000 บาท</t>
+  </si>
+  <si>
+    <t>~1200</t>
+  </si>
+  <si>
+    <t>~50000</t>
+  </si>
+  <si>
+    <t>~1000+</t>
+  </si>
+  <si>
+    <t>วันชกมวยตามตาราง</t>
+  </si>
+  <si>
+    <t>200 บาท</t>
+  </si>
+  <si>
+    <t>300 บาท</t>
+  </si>
+  <si>
+    <t>~3000</t>
+  </si>
+  <si>
+    <t>ปิดปรับปรุง (ข้อมูลล่าสุด)</t>
+  </si>
+  <si>
+    <t>จันทร์–ศุกร์ (ต้องจองล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>ฟรี (ยกเว้นงานพิเศษ)</t>
+  </si>
+  <si>
+    <t>~5000+</t>
+  </si>
+  <si>
+    <t>~3000+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	เสาร์–อาทิตย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	อังคาร–อาทิตย์</t>
+  </si>
+  <si>
+    <t>ตามรอบการแสดง</t>
+  </si>
+  <si>
+    <t>เสาร์–อาทิตย์ (ต้องจองล่วงหน้า)</t>
+  </si>
+  <si>
+    <t>40 บาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 บาท </t>
+  </si>
+  <si>
+    <t>800–2,000 บาท</t>
+  </si>
+  <si>
+    <t>~490 บาท</t>
+  </si>
+  <si>
+    <t>~690 บาท</t>
+  </si>
+  <si>
+    <t>เริ่ม ~650 บาท/ชม. (กิจกรรม)</t>
+  </si>
+  <si>
+    <t>~650+ บาท</t>
+  </si>
+  <si>
+    <t>~200 บาท</t>
+  </si>
+  <si>
+    <t>~300 บาท</t>
+  </si>
+  <si>
+    <t>ตลอดวัน</t>
+  </si>
+  <si>
+    <t>~400 บาท</t>
+  </si>
+  <si>
+    <t>200 บาท (ต่างชาติ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	~800 บาท</t>
+  </si>
+  <si>
+    <t>~50,000 (เฉลี่ยต่อวัน)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	~400</t>
+  </si>
+  <si>
+    <t>~20,000 (หมุนเวียน)</t>
+  </si>
+  <si>
+    <t>500 บาท (ต่างชาติ)</t>
+  </si>
+  <si>
+    <t>25 บาท</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>สายบุญ, เดินเล่น, ชิวๆ, จุดชมวิว</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรม, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, สาระความรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, ประวัติศาสตร์, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ประวัติศาสตร์, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, เด็ก, สาระความรู้</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, สำหรับครอบครัว, เดินเล่น</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, วัฒนธรรม, สาระความรู้</t>
+  </si>
+  <si>
+    <t>สาระความรู้, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, แปลกใหม่, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายบุญ, เงียบสงบ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรม, เดินเล่น</t>
+  </si>
+  <si>
+    <t>สายบุญ, จุดชมวิว, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายมู, สายบุญ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรม, เงียบสงบ</t>
+  </si>
+  <si>
+    <t>สายบุญ, สำหรับครอบครัว, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>สายบุญ, จุดถ่ายรูป, เดินเล่น, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, สำหรับครอบครัว, อินเทอร์แอคทีฟ, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>ชิวๆ, ช้อปปิ้ง, ของกิน, วัยรุ่น</t>
+  </si>
+  <si>
+    <t>ชิวๆ, ของกิน, โลคัล, เดินเล่น</t>
+  </si>
+  <si>
+    <t>สายบุญ, สำหรับครอบครัว, ริมน้ำ</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, สาระความรู้, เด็ก, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>ชิวๆ, เดินเล่น, ช้อปปิ้ง, สตรีทไลฟ์</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, เดินเล่น, ของกิน, วัฒนธรรม, ริมน้ำ</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, เด็ก, สัตว์, เดินเล่น</t>
+  </si>
+  <si>
+    <t>ธรรมชาติ, สำหรับครอบครัว, การเรียนรู้, กิจกรรมกลางแจ้ง</t>
+  </si>
+  <si>
+    <t>ศิลปะ, วัฒนธรรม, เดินเล่น, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ธรรมชาติ, สาระความรู้, สำหรับครอบครัว, เดินเล่น</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, แปลกใหม่, สำหรับผู้ใหญ่, ประวัติศาสตร์</t>
+  </si>
+  <si>
+    <t>ศิลปะ, ถ่ายรูป, เดินเล่น, ชิวๆ</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, เด็ก, สัตว์น้ำ, สาระความรู้</t>
+  </si>
+  <si>
+    <t>ของกิน, ชิวๆ, เดินเล่น, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ชิวๆ, ถ่ายรูป, ศิลปะ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, เดินเล่น, ศิลปะ, โลคัล</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, ของกิน, ธรรมชาติ, เดินเล่น</t>
+  </si>
+  <si>
+    <t>สำหรับครอบครัว, ริมน้ำ, ของกิน, เดินเล่น</t>
+  </si>
+  <si>
+    <t>ชิวๆ, ถ่ายรูป, เดินเล่น, ช้อปปิ้ง, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัยรุ่น, ชิวๆ, เดินเล่น, ท่องราตรี</t>
+  </si>
+  <si>
+    <t>ถ่ายรูป, เดินเล่น, ชิวๆ, จุดชมวิว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, สำหรับครอบครัว, ประวัติศาสตร์</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรม, จุดถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะ, ชิวๆ, สำหรับครอบครัว, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ธรรมชาติ, ปั่นจักรยาน, ชิวๆ</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ออกกำลังกาย, ธรรมชาติ, ชิวๆ</t>
+  </si>
+  <si>
+    <t>จุดถ่ายรูป, วัฒนธรรม, เดินเล่น</t>
+  </si>
+  <si>
+    <t>จุดผ่านทาง, จุดนัดพบ, ประวัติศาสตร์ (น้อย), เดินผ่านมากกว่าเที่ยว</t>
+  </si>
+  <si>
+    <t>ของกิน, เดินเล่น, ชิวๆ, โลคัล</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, สถาปัตยกรรม, สำหรับครอบครัว, จุดถ่ายรูป</t>
+  </si>
+  <si>
+    <t>สาระความรู้, สำหรับนักเรียน/นักศึกษา, เงียบสงบ</t>
+  </si>
+  <si>
+    <t>สายบุญ, สถาปัตยกรรม, ถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ของกิน, โลคัล, เดินเล่น, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, วัฒนธรรม, สำหรับครอบครัว, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>สาระความรู้, แปลกใหม่, วิทยาศาสตร์, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ชิวๆ, ธรรมชาติ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายมู, สายบุญ, วัฒนธรรม, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, สาระความรู้, ศิลปะ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายบุญ, จุดถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ถ่ายรูป, สายบุญ, จุดชมวิว, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>สายบุญ, เงียบสงบ, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>สายบุญ, ประวัติศาสตร์, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, วัฒนธรรม, โลคัล, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ประวัติศาสตร์, สาระความรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, ประวัติศาสตร์, เงียบสงบ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัยรุ่น, คาเฟ่, ชิวๆ, ช้อปปิ้ง, เดินเล่น</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, จุดผ่านทาง, ถ่ายรูป, เดินเล่น</t>
+  </si>
+  <si>
+    <t>จุดชมวิว, เดินเล่น, ถ่ายรูป, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, จุดถ่ายรูป, เดินเล่น</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, เดินเล่น, ชิวๆ, ถ่ายรูป, ของกิน</t>
+  </si>
+  <si>
+    <t>ของกิน, ดอกไม้, ชิวๆ, เดินเล่น</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, โลคัล, เดินเล่น, สายกิน</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ชิวๆ, ของกิน, วัยรุ่น</t>
+  </si>
+  <si>
+    <t>ธรรมชาติ, การเรียนรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>สาระความรู้, วิทยาศาสตร์, เด็ก, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายบุญ, เงียบสงบ, ฝึกสมาธิ</t>
+  </si>
+  <si>
+    <t>การเรียนรู้, สำหรับเด็ก, สำหรับครอบครัว, อ่านหนังสือ</t>
+  </si>
+  <si>
+    <t>ศิลปะ, วัฒนธรรม, สาระความรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะการแสดง, วัฒนธรรมไทย, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>กีฬา, วัยรุ่น, กิจกรรมกลางแจ้ง</t>
+  </si>
+  <si>
+    <t>ศิลปะ, นิทรรศการ, เดินเล่น, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ศิลปะการแสดง, วัฒนธรรม, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะการแสดง, วัยรุ่น, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะการแสดง, มิวสิคัล, วัยรุ่น, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ประวัติศาสตร์, ศิลปะ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะ, สาระความรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>ศิลปะ, วัฒนธรรม, สาระความรู้, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, สาระความรู้, ทหาร</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ศิลปะ, ประวัติศาสตร์, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, สถาปัตยกรรม, ประวัติศาสตร์</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรมจีน, สายมู, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์, สาระความรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>กีฬา, วัยรุ่น, ท้องถิ่น, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, ทหาร, สาระความรู้</t>
+  </si>
+  <si>
+    <t>กฎหมาย, สาระความรู้, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>ศิลปะ, วัฒนธรรม, ถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>กีฬา, การเรียนรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์, เทคโนโลยี, การเรียนรู้, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>สาระความรู้, สุขภาพ, วิถีชีวิตไทย, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, กฎหมาย, สาระความรู้</t>
+  </si>
+  <si>
+    <t>แปลกใหม่, ประวัติศาสตร์, กฎหมาย, วัยรุ่น</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ประวัติศาสตร์, สถาปัตยกรรม</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, จุดถ่ายรูป, สายบุญ, วัฒนธรรม</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, สาระความรู้, แรงงาน/สังคม</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, การเรียนรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะ, ประวัติศาสตร์, วัฒนธรรม, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ธรรมชาติ, ออกกำลังกาย, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ชิวๆ, วัยรุ่น, ของกิน, ช้อปปิ้ง, เดินเล่น</t>
+  </si>
+  <si>
+    <t>สาระความรู้, การแพทย์, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สาระความรู้, ประวัติศาสตร์, สื่อมวลชน</t>
+  </si>
+  <si>
+    <t>สาระความรู้, แปลกใหม่, ประวัติศาสตร์</t>
+  </si>
+  <si>
+    <t>ธรรมชาติ, เดินเล่น, ออกกำลังกาย, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ธรรมชาติ, ชิวๆ, ออกกำลังกาย</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์, ประวัติศาสตร์, เครื่องบิน, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ชีวิตประจำวันไทย, ประวัติศาสตร์, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สำหรับเด็ก, การเรียนรู้, เล่นสนุก, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ของสะสม, วัยรุ่น, เด็ก, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, โลคัล, การเรียนรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ศิลปะร่วมสมัย, ชิวๆ, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>แปลกใหม่, การเรียนรู้, ผู้พิการ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>การศึกษา, ประวัติศาสตร์, วัฒนธรรมไทย</t>
+  </si>
+  <si>
+    <t>สถาปัตยกรรม, ประวัติศาสตร์, วัฒนธรรม, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, ถ่ายรูป, จุดผ่านทาง</t>
+  </si>
+  <si>
+    <t>ถ่ายรูป, ศิลปะ, วัยรุ่น, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ดนตรีไทย, สาระความรู้</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, การแพทย์, แปลกใหม่</t>
+  </si>
+  <si>
+    <t>คาเฟ่, ชิวๆ, ถ่ายรูป, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ริมน้ำ, ของกิน, ถ่ายรูป, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ของกิน, เดินเล่น, สำหรับครอบครัว, ริมน้ำ</t>
+  </si>
+  <si>
+    <t>ของเล่น, การเรียนรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>ศิลปะ, ถ่ายรูป, แปลกใหม่, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ถ่ายรูป, ศิลปะ, แปลกใหม่, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ถ่ายรูป, เดินเล่น, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ช้อปปิ้ง, วัยรุ่น, สำหรับครอบครัว, ของกิน</t>
+  </si>
+  <si>
+    <t>จุดชมวิว, ถ่ายรูป, ชิวๆ, วัยรุ่น</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ธรรมชาติ, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, เดินเล่น, โลคัล, ถ่ายรูป</t>
+  </si>
+  <si>
+    <t>สายบุญ, ถ่ายรูป, วัฒนธรรม, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สวนสนุก, วัยรุ่น, สำหรับครอบครัว, เล่นน้ำ</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, ถ่ายรูป, เดินผ่าน, จุดเชื่อมต่อ</t>
+  </si>
+  <si>
+    <t>ของกิน, ชิวๆ, เดินเล่น, โลคัล, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ประวัติศาสตร์, ถ่ายรูป, สายบุญ</t>
+  </si>
+  <si>
+    <t>สายบุญ, วัฒนธรรม, ถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>สายมู, วัฒนธรรมอินเดีย, ถ่ายรูป, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ของกิน, ชิวๆ, โลคัล, เดินเล่น</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, การศึกษา, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, ถ่ายรูป, เงียบสงบ</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ออกกำลังกาย, ชิวๆ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์, การเรียนรู้, สำหรับครอบครัว, เด็ก</t>
+  </si>
+  <si>
+    <t>เดินเล่น, ปั่นจักรยาน, ถ่ายรูป, ชิวๆ</t>
+  </si>
+  <si>
+    <t>ศิลปะ, แกลเลอรี, ถ่ายรูป, สำหรับวัยรุ่น</t>
+  </si>
+  <si>
+    <t>แปลกใหม่, สะสมของ, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>การแพทย์, แปลกใหม่, สาระความรู้, วัยรุ่น</t>
+  </si>
+  <si>
+    <t>ประวัติศาสตร์, เศรษฐกิจ, สาระความรู้, สำหรับครอบครัว</t>
+  </si>
+  <si>
+    <t>วัฒนธรรม, ชีวิตไทย, สำหรับครอบครัว, โลคัล</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์, ธรณีวิทยา, การเรียนรู้, สำหรับครอบครัว</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4190,7 +5061,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4200,6 +5071,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4241,26 +5118,47 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4298,7 +5196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4332,6 +5230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4366,9 +5265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4541,14 +5441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4591,8 +5493,35 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4632,8 +5561,31 @@
       <c r="N2" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4673,8 +5625,31 @@
       <c r="N3" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4714,8 +5689,35 @@
       <c r="N4" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4752,8 +5754,31 @@
       <c r="N5" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4787,8 +5812,31 @@
       <c r="N6" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4825,8 +5873,29 @@
       <c r="N7" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4863,8 +5932,31 @@
       <c r="N8" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4898,8 +5990,31 @@
       <c r="N9" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
+        <v>10</v>
+      </c>
+      <c r="U9" s="3">
+        <v>20</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -4933,8 +6048,31 @@
       <c r="N10" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4971,8 +6109,31 @@
       <c r="N11" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5006,8 +6167,31 @@
       <c r="N12" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5041,8 +6225,31 @@
       <c r="N13" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5079,8 +6286,31 @@
       <c r="N14" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5120,8 +6350,31 @@
       <c r="N15" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5158,8 +6411,31 @@
       <c r="N16" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -5199,8 +6475,31 @@
       <c r="N17" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -5240,8 +6539,31 @@
       <c r="N18" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5281,8 +6603,31 @@
       <c r="N19" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5322,8 +6667,31 @@
       <c r="N20" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5363,8 +6731,31 @@
       <c r="N21" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5401,8 +6792,31 @@
       <c r="N22" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5442,8 +6856,31 @@
       <c r="N23" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5480,8 +6917,31 @@
       <c r="N24" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5521,8 +6981,31 @@
       <c r="N25" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -5562,8 +7045,31 @@
       <c r="N26" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5600,8 +7106,31 @@
       <c r="N27" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5638,8 +7167,31 @@
       <c r="N28" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5679,8 +7231,31 @@
       <c r="N29" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5717,8 +7292,31 @@
       <c r="N30" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -5758,8 +7356,31 @@
       <c r="N31" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -5799,8 +7420,31 @@
       <c r="N32" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -5840,8 +7484,31 @@
       <c r="N33" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5881,8 +7548,31 @@
       <c r="N34" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -5922,8 +7612,31 @@
       <c r="N35" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -5960,8 +7673,31 @@
       <c r="N36" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -6001,8 +7737,31 @@
       <c r="N37" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -6042,8 +7801,31 @@
       <c r="N38" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -6080,8 +7862,31 @@
       <c r="N39" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -6118,8 +7923,31 @@
       <c r="N40" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -6159,8 +7987,31 @@
       <c r="N41" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -6197,8 +8048,31 @@
       <c r="N42" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -6235,8 +8109,31 @@
       <c r="N43" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -6273,8 +8170,31 @@
       <c r="N44" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V44" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W44" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -6311,8 +8231,31 @@
       <c r="N45" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -6349,8 +8292,31 @@
       <c r="N46" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P46" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -6390,8 +8356,31 @@
       <c r="N47" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6431,8 +8420,31 @@
       <c r="N48" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P48" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6469,8 +8481,31 @@
       <c r="N49" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6507,8 +8542,31 @@
       <c r="N50" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W50" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6548,8 +8606,31 @@
       <c r="N51" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6589,8 +8670,31 @@
       <c r="N52" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6630,8 +8734,31 @@
       <c r="N53" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W53" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6671,8 +8798,31 @@
       <c r="N54" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W54" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6712,8 +8862,31 @@
       <c r="N55" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6750,8 +8923,31 @@
       <c r="N56" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="W56" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6791,8 +8987,31 @@
       <c r="N57" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W57" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6832,8 +9051,31 @@
       <c r="N58" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W58" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6870,8 +9112,31 @@
       <c r="N59" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W59" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6911,8 +9176,31 @@
       <c r="N60" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W60" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6952,8 +9240,31 @@
       <c r="N61" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W61" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6990,8 +9301,31 @@
       <c r="N62" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W62" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -7031,8 +9365,31 @@
       <c r="N63" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W63" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7069,8 +9426,31 @@
       <c r="N64" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W64" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -7110,8 +9490,31 @@
       <c r="N65" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W65" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -7151,8 +9554,31 @@
       <c r="N66" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -7192,8 +9618,31 @@
       <c r="N67" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W67" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7233,8 +9682,31 @@
       <c r="N68" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W68" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -7274,8 +9746,31 @@
       <c r="N69" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1460</v>
+      </c>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W69" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7315,8 +9810,31 @@
       <c r="N70" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W70" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7353,8 +9871,31 @@
       <c r="N71" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W71" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -7391,8 +9932,31 @@
       <c r="N72" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W72" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7432,8 +9996,31 @@
       <c r="N73" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W73" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -7473,8 +10060,31 @@
       <c r="N74" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W74" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7511,8 +10121,31 @@
       <c r="N75" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W75" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -7552,8 +10185,31 @@
       <c r="N76" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W76" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7593,8 +10249,31 @@
       <c r="N77" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W77" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -7631,8 +10310,31 @@
       <c r="N78" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W78" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -7672,8 +10374,31 @@
       <c r="N79" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="W79" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -7710,8 +10435,31 @@
       <c r="N80" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="W80" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -7751,8 +10499,31 @@
       <c r="N81" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W81" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -7789,8 +10560,31 @@
       <c r="N82" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W82" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -7830,8 +10624,31 @@
       <c r="N83" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W83" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -7871,8 +10688,31 @@
       <c r="N84" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W84" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -7912,8 +10752,31 @@
       <c r="N85" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P85" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W85" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -7953,8 +10816,31 @@
       <c r="N86" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -7994,8 +10880,31 @@
       <c r="N87" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W87" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -8035,8 +10944,31 @@
       <c r="N88" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W88" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -8076,8 +11008,31 @@
       <c r="N89" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W89" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -8117,8 +11072,25 @@
       <c r="N90" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="W90" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -8158,8 +11130,31 @@
       <c r="N91" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -8199,8 +11194,31 @@
       <c r="N92" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W92" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -8240,8 +11258,31 @@
       <c r="N93" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="W93" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -8281,8 +11322,31 @@
       <c r="N94" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="W94" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -8322,8 +11386,31 @@
       <c r="N95" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="W95" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -8363,8 +11450,31 @@
       <c r="N96" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W96" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -8404,8 +11514,31 @@
       <c r="N97" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -8445,8 +11578,31 @@
       <c r="N98" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -8486,8 +11642,31 @@
       <c r="N99" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -8527,8 +11706,31 @@
       <c r="N100" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W100" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -8568,8 +11770,31 @@
       <c r="N101" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W101" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -8609,8 +11834,31 @@
       <c r="N102" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W102" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -8647,8 +11895,31 @@
       <c r="N103" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W103" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -8688,8 +11959,31 @@
       <c r="N104" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W104" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -8729,8 +12023,31 @@
       <c r="N105" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W105" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -8767,8 +12084,31 @@
       <c r="N106" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W106" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -8808,8 +12148,31 @@
       <c r="N107" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W107" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -8846,8 +12209,31 @@
       <c r="N108" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W108" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -8887,8 +12273,31 @@
       <c r="N109" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="W109" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -8928,8 +12337,31 @@
       <c r="N110" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>1483</v>
+      </c>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="W110" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -8966,8 +12398,31 @@
       <c r="N111" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V111" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W111" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -9004,8 +12459,31 @@
       <c r="N112" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V112" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W112" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -9042,8 +12520,31 @@
       <c r="N113" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W113" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -9080,8 +12581,31 @@
       <c r="N114" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V114" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="W114" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -9118,8 +12642,31 @@
       <c r="N115" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W115" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -9153,8 +12700,31 @@
       <c r="N116" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W116" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -9188,8 +12758,31 @@
       <c r="N117" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W117" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -9223,8 +12816,29 @@
       <c r="N118" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V118" s="3"/>
+      <c r="W118" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -9258,8 +12872,31 @@
       <c r="N119" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V119" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W119" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -9299,8 +12936,31 @@
       <c r="N120" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V120" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="W120" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -9340,8 +13000,31 @@
       <c r="N121" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P121" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V121" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W121" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -9381,8 +13064,31 @@
       <c r="N122" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V122" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W122" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -9422,8 +13128,31 @@
       <c r="N123" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P123" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V123" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W123" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -9463,8 +13192,31 @@
       <c r="N124" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="P124" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V124" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="W124" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -9504,8 +13256,23 @@
       <c r="N125" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V125" s="3"/>
+      <c r="W125" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -9545,8 +13312,31 @@
       <c r="N126" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P126" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q126" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V126" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W126" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -9586,8 +13376,31 @@
       <c r="N127" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P127" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V127" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W127" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -9627,8 +13440,31 @@
       <c r="N128" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P128" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q128" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W128" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -9668,8 +13504,31 @@
       <c r="N129" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P129" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="U129" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="V129" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="W129" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -9709,8 +13568,31 @@
       <c r="N130" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P130" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U130" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V130" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W130" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -9750,8 +13632,31 @@
       <c r="N131" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U131" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V131" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W131" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -9791,8 +13696,31 @@
       <c r="N132" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="O132" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P132" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="V132" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W132" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -9832,8 +13760,31 @@
       <c r="N133" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V133" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W133" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -9873,8 +13824,31 @@
       <c r="N134" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V134" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W134" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -9914,8 +13888,31 @@
       <c r="N135" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="O135" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V135" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W135" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -9955,8 +13952,31 @@
       <c r="N136" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U136" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V136" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W136" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -9996,8 +14016,31 @@
       <c r="N137" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="O137" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="P137" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U137" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="V137" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W137" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -10034,8 +14077,31 @@
       <c r="N138" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="O138" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P138" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V138" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W138" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -10072,8 +14138,31 @@
       <c r="N139" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="O139" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U139" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V139" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W139" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -10113,8 +14202,31 @@
       <c r="N140" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="O140" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U140" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V140" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W140" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -10151,8 +14263,31 @@
       <c r="N141" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="O141" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U141" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V141" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W141" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -10192,8 +14327,31 @@
       <c r="N142" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="O142" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U142" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="V142" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W142" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -10230,8 +14388,31 @@
       <c r="N143" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="O143" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U143" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V143" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W143" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -10268,8 +14449,31 @@
       <c r="N144" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P144" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U144" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V144" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W144" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -10309,8 +14513,31 @@
       <c r="N145" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U145" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="V145" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W145" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -10350,8 +14577,31 @@
       <c r="N146" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U146" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V146" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W146" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -10388,8 +14638,31 @@
       <c r="N147" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U147" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V147" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W147" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -10426,8 +14699,31 @@
       <c r="N148" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="U148" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V148" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W148" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -10464,8 +14760,31 @@
       <c r="N149" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P149" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U149" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="V149" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W149" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -10502,8 +14821,31 @@
       <c r="N150" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V150" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W150" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -10543,8 +14885,31 @@
       <c r="N151" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V151" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W151" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -10581,8 +14946,31 @@
       <c r="N152" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P152" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U152" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V152" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="W152" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -10619,8 +15007,31 @@
       <c r="N153" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W153" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -10660,8 +15071,31 @@
       <c r="N154" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P154" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U154" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="V154" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W154" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -10701,8 +15135,31 @@
       <c r="N155" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P155" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V155" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W155" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -10742,8 +15199,31 @@
       <c r="N156" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U156" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V156" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W156" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -10783,8 +15263,31 @@
       <c r="N157" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P157" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U157" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V157" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="W157" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -10824,8 +15327,31 @@
       <c r="N158" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P158" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W158" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -10862,8 +15388,31 @@
       <c r="N159" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V159" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W159" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -10900,8 +15449,31 @@
       <c r="N160" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="O160" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V160" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W160" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -10938,8 +15510,31 @@
       <c r="N161" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="O161" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V161" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="W161" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -10976,8 +15571,31 @@
       <c r="N162" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="O162" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P162" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U162" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V162" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W162" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -11017,8 +15635,31 @@
       <c r="N163" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U163" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V163" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="W163" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -11055,8 +15696,31 @@
       <c r="N164" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="O164" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U164" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="V164" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="W164" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -11096,8 +15760,31 @@
       <c r="N165" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="O165" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U165" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V165" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W165" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -11137,8 +15824,31 @@
       <c r="N166" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U166" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V166" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W166" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -11178,8 +15888,31 @@
       <c r="N167" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="O167" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q167" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U167" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V167" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W167" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -11219,8 +15952,31 @@
       <c r="N168" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V168" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W168" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -11257,8 +16013,31 @@
       <c r="N169" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="O169" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U169" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V169" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W169" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -11298,8 +16077,31 @@
       <c r="N170" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="O170" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="V170" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W170" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -11339,8 +16141,31 @@
       <c r="N171" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="O171" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q171" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U171" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V171" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W171" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -11377,8 +16202,31 @@
       <c r="N172" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="O172" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P172" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U172" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V172" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W172" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -11418,8 +16266,31 @@
       <c r="N173" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="O173" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q173" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U173" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V173" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W173" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -11459,8 +16330,31 @@
       <c r="N174" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="O174" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="U174" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V174" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W174" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -11497,8 +16391,31 @@
       <c r="N175" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="O175" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V175" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W175" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -11538,8 +16455,31 @@
       <c r="N176" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="V176" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W176" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -11576,8 +16516,31 @@
       <c r="N177" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U177" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V177" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W177" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -11614,164 +16577,188 @@
       <c r="N178" t="s">
         <v>1105</v>
       </c>
+      <c r="O178" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U178" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V178" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="W178" t="s">
+        <v>1669</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K15" r:id="rId5"/>
-    <hyperlink ref="K16" r:id="rId6"/>
-    <hyperlink ref="K17" r:id="rId7"/>
-    <hyperlink ref="K18" r:id="rId8"/>
-    <hyperlink ref="K19" r:id="rId9"/>
-    <hyperlink ref="K20" r:id="rId10"/>
-    <hyperlink ref="K21" r:id="rId11"/>
-    <hyperlink ref="K22" r:id="rId12"/>
-    <hyperlink ref="K23" r:id="rId13"/>
-    <hyperlink ref="K24" r:id="rId14"/>
-    <hyperlink ref="K25" r:id="rId15"/>
-    <hyperlink ref="K26" r:id="rId16"/>
-    <hyperlink ref="K27" r:id="rId17"/>
-    <hyperlink ref="K28" r:id="rId18"/>
-    <hyperlink ref="K29" r:id="rId19"/>
-    <hyperlink ref="K30" r:id="rId20"/>
-    <hyperlink ref="K31" r:id="rId21"/>
-    <hyperlink ref="K32" r:id="rId22"/>
-    <hyperlink ref="K33" r:id="rId23"/>
-    <hyperlink ref="K34" r:id="rId24"/>
-    <hyperlink ref="K35" r:id="rId25"/>
-    <hyperlink ref="K36" r:id="rId26"/>
-    <hyperlink ref="K37" r:id="rId27"/>
-    <hyperlink ref="K38" r:id="rId28"/>
-    <hyperlink ref="K39" r:id="rId29"/>
-    <hyperlink ref="K40" r:id="rId30"/>
-    <hyperlink ref="K41" r:id="rId31"/>
-    <hyperlink ref="K42" r:id="rId32"/>
-    <hyperlink ref="K43" r:id="rId33"/>
-    <hyperlink ref="K44" r:id="rId34"/>
-    <hyperlink ref="K45" r:id="rId35"/>
-    <hyperlink ref="K46" r:id="rId36"/>
-    <hyperlink ref="K47" r:id="rId37"/>
-    <hyperlink ref="K48" r:id="rId38"/>
-    <hyperlink ref="K49" r:id="rId39"/>
-    <hyperlink ref="K50" r:id="rId40"/>
-    <hyperlink ref="K51" r:id="rId41"/>
-    <hyperlink ref="K52" r:id="rId42"/>
-    <hyperlink ref="K53" r:id="rId43"/>
-    <hyperlink ref="K54" r:id="rId44"/>
-    <hyperlink ref="K55" r:id="rId45"/>
-    <hyperlink ref="K56" r:id="rId46"/>
-    <hyperlink ref="K57" r:id="rId47"/>
-    <hyperlink ref="K58" r:id="rId48"/>
-    <hyperlink ref="K59" r:id="rId49"/>
-    <hyperlink ref="K60" r:id="rId50"/>
-    <hyperlink ref="K61" r:id="rId51"/>
-    <hyperlink ref="K62" r:id="rId52"/>
-    <hyperlink ref="K63" r:id="rId53"/>
-    <hyperlink ref="K64" r:id="rId54"/>
-    <hyperlink ref="K65" r:id="rId55"/>
-    <hyperlink ref="K66" r:id="rId56"/>
-    <hyperlink ref="K67" r:id="rId57"/>
-    <hyperlink ref="K68" r:id="rId58"/>
-    <hyperlink ref="K69" r:id="rId59"/>
-    <hyperlink ref="K70" r:id="rId60"/>
-    <hyperlink ref="K71" r:id="rId61"/>
-    <hyperlink ref="K72" r:id="rId62"/>
-    <hyperlink ref="K73" r:id="rId63"/>
-    <hyperlink ref="K74" r:id="rId64"/>
-    <hyperlink ref="K75" r:id="rId65"/>
-    <hyperlink ref="K76" r:id="rId66"/>
-    <hyperlink ref="K77" r:id="rId67"/>
-    <hyperlink ref="K78" r:id="rId68"/>
-    <hyperlink ref="K79" r:id="rId69"/>
-    <hyperlink ref="K80" r:id="rId70"/>
-    <hyperlink ref="K81" r:id="rId71"/>
-    <hyperlink ref="K82" r:id="rId72"/>
-    <hyperlink ref="K83" r:id="rId73"/>
-    <hyperlink ref="K84" r:id="rId74"/>
-    <hyperlink ref="K85" r:id="rId75"/>
-    <hyperlink ref="K86" r:id="rId76"/>
-    <hyperlink ref="K87" r:id="rId77"/>
-    <hyperlink ref="K88" r:id="rId78"/>
-    <hyperlink ref="K89" r:id="rId79"/>
-    <hyperlink ref="K90" r:id="rId80"/>
-    <hyperlink ref="K91" r:id="rId81"/>
-    <hyperlink ref="K92" r:id="rId82"/>
-    <hyperlink ref="K93" r:id="rId83"/>
-    <hyperlink ref="K94" r:id="rId84"/>
-    <hyperlink ref="K95" r:id="rId85"/>
-    <hyperlink ref="K96" r:id="rId86"/>
-    <hyperlink ref="K97" r:id="rId87"/>
-    <hyperlink ref="K98" r:id="rId88"/>
-    <hyperlink ref="K99" r:id="rId89"/>
-    <hyperlink ref="K100" r:id="rId90"/>
-    <hyperlink ref="K101" r:id="rId91"/>
-    <hyperlink ref="K102" r:id="rId92"/>
-    <hyperlink ref="K103" r:id="rId93"/>
-    <hyperlink ref="K104" r:id="rId94"/>
-    <hyperlink ref="K105" r:id="rId95"/>
-    <hyperlink ref="K106" r:id="rId96"/>
-    <hyperlink ref="K107" r:id="rId97"/>
-    <hyperlink ref="K108" r:id="rId98"/>
-    <hyperlink ref="K109" r:id="rId99"/>
-    <hyperlink ref="K110" r:id="rId100"/>
-    <hyperlink ref="K120" r:id="rId101"/>
-    <hyperlink ref="K121" r:id="rId102"/>
-    <hyperlink ref="K122" r:id="rId103"/>
-    <hyperlink ref="K123" r:id="rId104"/>
-    <hyperlink ref="K124" r:id="rId105"/>
-    <hyperlink ref="K125" r:id="rId106"/>
-    <hyperlink ref="K126" r:id="rId107"/>
-    <hyperlink ref="K127" r:id="rId108"/>
-    <hyperlink ref="K128" r:id="rId109"/>
-    <hyperlink ref="K129" r:id="rId110"/>
-    <hyperlink ref="K130" r:id="rId111"/>
-    <hyperlink ref="K131" r:id="rId112"/>
-    <hyperlink ref="K132" r:id="rId113"/>
-    <hyperlink ref="K133" r:id="rId114"/>
-    <hyperlink ref="K134" r:id="rId115"/>
-    <hyperlink ref="K135" r:id="rId116"/>
-    <hyperlink ref="K136" r:id="rId117"/>
-    <hyperlink ref="K137" r:id="rId118"/>
-    <hyperlink ref="K138" r:id="rId119"/>
-    <hyperlink ref="K139" r:id="rId120"/>
-    <hyperlink ref="K140" r:id="rId121"/>
-    <hyperlink ref="K141" r:id="rId122"/>
-    <hyperlink ref="K142" r:id="rId123"/>
-    <hyperlink ref="K143" r:id="rId124"/>
-    <hyperlink ref="K144" r:id="rId125"/>
-    <hyperlink ref="K145" r:id="rId126"/>
-    <hyperlink ref="K146" r:id="rId127"/>
-    <hyperlink ref="K147" r:id="rId128"/>
-    <hyperlink ref="K148" r:id="rId129"/>
-    <hyperlink ref="K149" r:id="rId130"/>
-    <hyperlink ref="K150" r:id="rId131"/>
-    <hyperlink ref="K151" r:id="rId132"/>
-    <hyperlink ref="K152" r:id="rId133"/>
-    <hyperlink ref="K154" r:id="rId134"/>
-    <hyperlink ref="K155" r:id="rId135"/>
-    <hyperlink ref="K156" r:id="rId136"/>
-    <hyperlink ref="K157" r:id="rId137"/>
-    <hyperlink ref="K158" r:id="rId138"/>
-    <hyperlink ref="K159" r:id="rId139"/>
-    <hyperlink ref="K160" r:id="rId140"/>
-    <hyperlink ref="K161" r:id="rId141"/>
-    <hyperlink ref="K162" r:id="rId142"/>
-    <hyperlink ref="K163" r:id="rId143"/>
-    <hyperlink ref="K164" r:id="rId144"/>
-    <hyperlink ref="K165" r:id="rId145"/>
-    <hyperlink ref="K166" r:id="rId146"/>
-    <hyperlink ref="K167" r:id="rId147"/>
-    <hyperlink ref="K168" r:id="rId148"/>
-    <hyperlink ref="K170" r:id="rId149"/>
-    <hyperlink ref="K171" r:id="rId150"/>
-    <hyperlink ref="K173" r:id="rId151"/>
-    <hyperlink ref="K174" r:id="rId152"/>
-    <hyperlink ref="K176" r:id="rId153"/>
-    <hyperlink ref="K177" r:id="rId154"/>
-    <hyperlink ref="K178" r:id="rId155"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K54" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K56" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K99" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K100" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K101" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K102" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K103" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K104" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K105" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K106" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K107" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="K108" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="K109" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="K110" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K120" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="K121" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K122" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="K123" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K124" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="K125" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K126" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="K127" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="K128" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="K129" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K130" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="K131" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K132" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="K133" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="K134" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="K135" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="K136" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="K137" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="K138" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="K139" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="K140" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="K141" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="K142" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="K143" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="K144" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="K145" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="K146" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="K147" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="K148" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="K149" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="K150" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="K151" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="K152" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="K154" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="K155" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="K156" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K157" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="K158" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="K159" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="K160" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="K161" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="K162" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K163" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="K164" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="K165" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="K166" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="K167" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="K168" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="K170" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="K171" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="K173" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="K174" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="K176" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="K177" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="K178" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
